--- a/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 2,64</t>
+          <t>-8,79; 7,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,26</t>
+          <t>-3,42; 6,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 7,2</t>
+          <t>-3,68; 5,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 2,91</t>
+          <t>-12,5; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 8,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 8,91</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 7,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 6,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,62; 4,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 0,94</t>
+          <t>-8,7; 1,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 2,96</t>
+          <t>-3,31; 4,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 5,58</t>
+          <t>-2,26; 5,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 1,06</t>
+          <t>-0,4; 11,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 1,58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 5,49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 6,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 15,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,39 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,91</t>
+          <t>-7,56; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,89</t>
+          <t>-5,68; 5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,55</t>
+          <t>-4,26; 3,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 7,29</t>
+          <t>-1,85; 11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 6,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 5,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 6,73</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 4,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 15,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,37</t>
+          <t>-4,22; 4,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,14</t>
+          <t>-3,01; 5,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,6</t>
+          <t>1,67; 15,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 4,87</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 5,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 20,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 1,52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 3,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 3,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 8,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 1,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 3,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 10,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-4,35%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1.303686196642162</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.800103222708005</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5609655836397387</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.665713208868815</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.01467224622323939</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01993166587234631</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.006063306820025877</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.04056586030815563</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 7,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 6,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 5,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,5; 4,17</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 8,91</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 7,98</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 6,63</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 4,84</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.808972786861236</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.2955250722613</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.562059069796301</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.52927361036479</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1057964403335731</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03549064333217409</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.03732136709968262</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1324444424569763</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.2801800961026</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.186483717053997</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.452527510775376</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.500830523649323</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.07365460123025329</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.08356844062318278</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.07353739056378053</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.05205158543067324</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,83%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 1,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 4,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 5,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 11,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 1,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 5,49</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 6,87</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 15,57</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-4.055413772147531</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9579726051715531</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.705661671102965</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.556229156031522</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.045065811003893</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01077962048705609</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.01923161685579113</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.06773700663207512</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.202818976622048</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.130047594141465</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.120612783633173</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5422780523641391</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.1015517570729072</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03451352809295984</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.02306717069003194</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.005913704626560919</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 4,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,68; 5,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 3,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 11,35</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 5,53</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 6,73</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 4,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 15,02</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.6348565630097909</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.959676710564739</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.982573032287431</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.03760417370526</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.006997147953173631</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.05709271669571193</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.0707534589971584</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1560263640279272</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.8212291139472305</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2581723060410379</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.7742622948862854</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.424168453192445</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.009626770817760194</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.003111433767687688</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.008639208025947932</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.05613238070404473</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 4,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 5,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 15,24</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 4,87</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 5,79</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 20,73</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.955504724583979</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.666724183798108</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.550431449685325</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.921655297447898</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.07771999764172921</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.06694271177247971</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.04975552433579606</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.02456925202174516</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.76414325251851</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.857775887101115</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.384208168835268</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.2679028822593</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.07066645677666321</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.07470032229579024</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.03885247575872491</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1481756502122728</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 1,52</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 3,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 3,27</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 8,16</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 1,78</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 3,51</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 3,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 10,29</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.356527662465835</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7596562761304937</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.78787622055565</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.464543331848002</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.02675184454107691</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.00870921058336529</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.00877466118225744</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.04201589619502068</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.763449527737214</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.08160727440524</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.731316662460388</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4629045514957291</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.06414592067420283</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.02335209499580197</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.01900643121660695</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.005004687973654545</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9905446820017381</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.773167817601476</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.321414014666467</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.427322940616909</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.0117687978508983</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.04410281396454895</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.03775004432918513</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.09464184119746226</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
